--- a/projects/housecalnsga.xlsx
+++ b/projects/housecalnsga.xlsx
@@ -1602,7 +1602,7 @@
     <t>interior_equipment_electricity</t>
   </si>
   <si>
-    <t>nsga_nrel</t>
+    <t>nsga_nrelcal4</t>
   </si>
 </sst>
 </file>
